--- a/docs/resources/tables/schedule-cumulative-report-2023-08-04.xlsx
+++ b/docs/resources/tables/schedule-cumulative-report-2023-08-04.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jahrim\Desktop\Projects\pm-project\docs\resources\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCB809E0-114B-432A-B4B8-951DEAF1E646}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46EAF2CF-C402-4433-8E8A-E0C9EB3299DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Data
 Monitoraggio</t>
@@ -57,6 +57,17 @@
   </si>
   <si>
     <t>Scope Bank Iniziale (giorni)</t>
+  </si>
+  <si>
+    <t>Scadenza</t>
+  </si>
+  <si>
+    <t>Numero
+Scadenza</t>
+  </si>
+  <si>
+    <t>Linea
+Verticale</t>
   </si>
 </sst>
 </file>
@@ -91,7 +102,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -254,11 +265,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -280,15 +309,22 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -359,26 +395,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -428,21 +444,6 @@
           </c:marker>
           <c:dPt>
             <c:idx val="0"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="5"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
             <c:bubble3D val="0"/>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -815,6 +816,139 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-B0EC-4D4A-8DA6-7E1CCB60E978}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Scadenza</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.0899957615963876E-2"/>
+                  <c:y val="0.66366827037949838"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-6F82-401A-AF41-2D9C1FE9FE40}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-6F82-401A-AF41-2D9C1FE9FE40}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:numFmt formatCode="dd\-mm\-yyyy" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="9144" rIns="9144" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="FF0000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                </c15:spPr>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$5:$G$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>45152</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45152</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$5:$H$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6F82-401A-AF41-2D9C1FE9FE40}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -898,26 +1032,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="dd\-mm\-yyyy" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
@@ -962,7 +1076,8 @@
         <c:axId val="622117999"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="-10"/>
+          <c:max val="15"/>
+          <c:min val="-15"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1014,26 +1129,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="#,##0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
@@ -1144,578 +1239,22 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:userShapes r:id="rId3"/>
+  <c:userShapes r:id="rId1"/>
 </c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>9523</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>11206</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>304799</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>68355</xdr:rowOff>
     </xdr:to>
@@ -1744,16 +1283,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>87016</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>73270</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>7837</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>165843</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>23022</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1768,8 +1307,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6842439" y="4659924"/>
-          <a:ext cx="7376442" cy="1092752"/>
+          <a:off x="11583691" y="4217887"/>
+          <a:ext cx="7394027" cy="1525688"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1915,11 +1454,11 @@
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
       <cdr:x>0.08371</cdr:x>
-      <cdr:y>0.0986</cdr:y>
+      <cdr:y>0.0971</cdr:y>
     </cdr:from>
     <cdr:to>
       <cdr:x>0.98249</cdr:x>
-      <cdr:y>0.52777</cdr:y>
+      <cdr:y>0.45251</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -1934,8 +1473,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="686535" y="626235"/>
-          <a:ext cx="7370885" cy="2725617"/>
+          <a:off x="688103" y="616893"/>
+          <a:ext cx="7388039" cy="2257976"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -1983,12 +1522,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.08389</cdr:x>
-      <cdr:y>0.5258</cdr:y>
+      <cdr:x>0.08157</cdr:x>
+      <cdr:y>0.45551</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.98344</cdr:x>
-      <cdr:y>0.64083</cdr:y>
+      <cdr:x>0.98112</cdr:x>
+      <cdr:y>0.57095</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -2003,8 +1542,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="687974" y="3339365"/>
-          <a:ext cx="7377233" cy="730525"/>
+          <a:off x="670532" y="2893910"/>
+          <a:ext cx="7394370" cy="733434"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -2407,29 +1946,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T11" sqref="T11"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="4" width="20.7109375" customWidth="1"/>
+    <col min="6" max="8" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="17"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="13">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>0</v>
       </c>
@@ -2442,8 +1982,17 @@
       <c r="D4" s="12" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F4" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>44981</v>
       </c>
@@ -2451,15 +2000,26 @@
         <f>A5</f>
         <v>44981</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="16">
         <v>11</v>
       </c>
       <c r="D5" s="7">
         <f>C5-$C$2</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F5" s="23">
+        <v>45152</v>
+      </c>
+      <c r="G5" s="19">
+        <f>F5</f>
+        <v>45152</v>
+      </c>
+      <c r="H5" s="21">
+        <f>MAX(C5:C28)+2</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <f>A5+7</f>
         <v>44988</v>
@@ -2475,8 +2035,18 @@
         <f t="shared" ref="D6:D28" si="0">C6-$C$2</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F6" s="24">
+        <v>45152</v>
+      </c>
+      <c r="G6" s="20">
+        <f>F6</f>
+        <v>45152</v>
+      </c>
+      <c r="H6" s="22">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <f t="shared" ref="A7:A25" si="1">A6+7</f>
         <v>44995</v>
@@ -2492,8 +2062,10 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F7" s="17"/>
+      <c r="G7" s="18"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <f t="shared" si="1"/>
         <v>45002</v>
@@ -2509,8 +2081,10 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F8" s="17"/>
+      <c r="G8" s="18"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <f t="shared" si="1"/>
         <v>45009</v>
@@ -2526,8 +2100,10 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F9" s="17"/>
+      <c r="G9" s="18"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <f t="shared" si="1"/>
         <v>45016</v>
@@ -2543,8 +2119,10 @@
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F10" s="17"/>
+      <c r="G10" s="18"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <f t="shared" si="1"/>
         <v>45023</v>
@@ -2560,8 +2138,10 @@
         <f t="shared" si="0"/>
         <v>-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F11" s="17"/>
+      <c r="G11" s="18"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <f t="shared" si="1"/>
         <v>45030</v>
@@ -2577,8 +2157,10 @@
         <f t="shared" si="0"/>
         <v>-4</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F12" s="17"/>
+      <c r="G12" s="18"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <f t="shared" si="1"/>
         <v>45037</v>
@@ -2594,8 +2176,10 @@
         <f t="shared" si="0"/>
         <v>-5</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F13" s="17"/>
+      <c r="G13" s="18"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <f t="shared" si="1"/>
         <v>45044</v>
@@ -2611,8 +2195,10 @@
         <f t="shared" si="0"/>
         <v>-7</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F14" s="17"/>
+      <c r="G14" s="18"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <f t="shared" si="1"/>
         <v>45051</v>
@@ -2628,8 +2214,10 @@
         <f t="shared" si="0"/>
         <v>-6</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F15" s="17"/>
+      <c r="G15" s="18"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <f t="shared" si="1"/>
         <v>45058</v>
@@ -2645,8 +2233,10 @@
         <f t="shared" si="0"/>
         <v>-8</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F16" s="17"/>
+      <c r="G16" s="18"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <f t="shared" si="1"/>
         <v>45065</v>
@@ -2662,8 +2252,10 @@
         <f t="shared" si="0"/>
         <v>-3</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F17" s="17"/>
+      <c r="G17" s="18"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <f t="shared" si="1"/>
         <v>45072</v>
@@ -2679,8 +2271,10 @@
         <f t="shared" si="0"/>
         <v>-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F18" s="17"/>
+      <c r="G18" s="18"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <f t="shared" si="1"/>
         <v>45079</v>
@@ -2696,8 +2290,10 @@
         <f t="shared" si="0"/>
         <v>-3</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F19" s="17"/>
+      <c r="G19" s="18"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <f t="shared" si="1"/>
         <v>45086</v>
@@ -2713,8 +2309,10 @@
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F20" s="17"/>
+      <c r="G20" s="18"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <f t="shared" si="1"/>
         <v>45093</v>
@@ -2730,8 +2328,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F21" s="17"/>
+      <c r="G21" s="18"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <f t="shared" si="1"/>
         <v>45100</v>
@@ -2747,8 +2347,10 @@
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F22" s="17"/>
+      <c r="G22" s="18"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <f t="shared" si="1"/>
         <v>45107</v>
@@ -2764,8 +2366,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F23" s="17"/>
+      <c r="G23" s="18"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <f t="shared" si="1"/>
         <v>45114</v>
@@ -2781,8 +2385,10 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F24" s="17"/>
+      <c r="G24" s="18"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <f t="shared" si="1"/>
         <v>45121</v>
@@ -2798,8 +2404,10 @@
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F25" s="17"/>
+      <c r="G25" s="18"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <f>A25+7</f>
         <v>45128</v>
@@ -2815,8 +2423,10 @@
         <f t="shared" si="0"/>
         <v>-2</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F26" s="17"/>
+      <c r="G26" s="18"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <f>A26+7</f>
         <v>45135</v>
@@ -2832,8 +2442,10 @@
         <f t="shared" si="0"/>
         <v>-2</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F27" s="17"/>
+      <c r="G27" s="18"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <f>A27+7</f>
         <v>45142</v>
@@ -2842,16 +2454,15 @@
         <f t="shared" si="2"/>
         <v>45142</v>
       </c>
-      <c r="C28" s="18">
+      <c r="C28" s="15">
         <v>7</v>
       </c>
       <c r="D28" s="9">
         <f t="shared" si="0"/>
         <v>-4</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D29" s="15"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">
